--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00005.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00005.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="11020" windowWidth="24520" windowHeight="11260" tabRatio="377"/>
+    <workbookView xWindow="10635" yWindow="11025" windowWidth="24525" windowHeight="11265" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -270,30 +270,31 @@
     <t>CP02PMUO-WFP01-01-VEL3DK000</t>
   </si>
   <si>
+    <t>SWE 00009</t>
+  </si>
+  <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>43-2726</t>
+  </si>
+  <si>
+    <t>Buoy adrift and recovered 12-Oct-2015</t>
+  </si>
+  <si>
     <r>
-      <t>CP02PMUO-RII01-02-ADCPTL0</t>
+      <t>CP02PMUO-RII01-02-ADCPSL0</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>10</t>
     </r>
-  </si>
-  <si>
-    <t>SWE 00009</t>
-  </si>
-  <si>
-    <t>units = mm</t>
-  </si>
-  <si>
-    <t>43-2726</t>
-  </si>
-  <si>
-    <t>Buoy adrift and recovered 12-Oct-2015</t>
   </si>
 </sst>
 </file>
@@ -397,6 +398,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,11 +421,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1010,24 +1014,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="10" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1094,16 +1098,16 @@
         <v>63</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -1122,22 +1126,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,9 +1161,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>60</v>
@@ -1177,13 +1181,13 @@
         <v>432000</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>60</v>
@@ -1203,9 +1207,9 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>60</v>
@@ -1225,7 +1229,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1237,7 +1241,7 @@
       </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -1257,11 +1261,11 @@
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="22"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>37</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>17</v>
@@ -1285,7 +1289,7 @@
       </c>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>15</v>
@@ -1307,7 +1311,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -1329,7 +1333,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>18</v>
@@ -1353,7 +1357,7 @@
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>19</v>
@@ -1377,7 +1381,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>20</v>
@@ -1401,7 +1405,7 @@
       </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>21</v>
@@ -1425,7 +1429,7 @@
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>22</v>
@@ -1449,7 +1453,7 @@
       </c>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1459,7 +1463,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
@@ -1481,7 +1485,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>38</v>
       </c>
@@ -1503,7 +1507,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1513,7 +1517,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>68</v>
       </c>
@@ -1535,7 +1539,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>68</v>
       </c>
@@ -1557,7 +1561,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1567,7 +1571,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
@@ -1591,7 +1595,7 @@
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1615,7 +1619,7 @@
       </c>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>39</v>
       </c>
@@ -1639,7 +1643,7 @@
       </c>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
@@ -1663,7 +1667,7 @@
       </c>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1691,7 @@
       </c>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>39</v>
       </c>
@@ -1711,7 +1715,7 @@
       </c>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>39</v>
       </c>
@@ -1759,7 +1763,7 @@
       </c>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>39</v>
       </c>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>39</v>
       </c>
@@ -1807,7 +1811,7 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -1817,7 +1821,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -1841,7 +1845,7 @@
       </c>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -1865,7 +1869,7 @@
       </c>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1875,7 +1879,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>54</v>
       </c>
@@ -1893,11 +1897,11 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="22"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>33</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="26"/>
@@ -1917,7 +1921,7 @@
       </c>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -1927,7 +1931,7 @@
       <c r="G40" s="16"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="22"/>
     </row>
   </sheetData>
